--- a/lab8/sprawozdanie/workstealing_vs_fixedpool.xlsx
+++ b/lab8/sprawozdanie/workstealing_vs_fixedpool.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>stealing</t>
+    <t>workStealingPool</t>
   </si>
   <si>
-    <t>fixed</t>
+    <t>fixedThreadPool</t>
   </si>
 </sst>
 </file>
@@ -71,6 +71,1292 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Liczbą wątków: 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34548417132216019"/>
+          <c:y val="4.8525569242254575E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12148711857945131"/>
+          <c:y val="0.20558999274026918"/>
+          <c:w val="0.79771679203507384"/>
+          <c:h val="0.62174597996079162"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workStealingPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixedThreadPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="147301376"/>
+        <c:axId val="212003072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="147301376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba iteracji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="212003072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="212003072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147301376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75858938547486032"/>
+          <c:y val="4.9849074016923699E-2"/>
+          <c:w val="0.20416666666666666"/>
+          <c:h val="0.13499748701625064"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Liczbą wątków: 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35246741154562383"/>
+          <c:y val="5.5991041433370664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12148711857945131"/>
+          <c:y val="0.20558999274026918"/>
+          <c:w val="0.79771679203507384"/>
+          <c:h val="0.62174597996079162"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workStealingPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixedThreadPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="220453888"/>
+        <c:axId val="216214336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="220453888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba iteracji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216214336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216214336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="220453888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75858938547486032"/>
+          <c:y val="4.9849074016923699E-2"/>
+          <c:w val="0.20416666666666666"/>
+          <c:h val="0.13499748701625064"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Liczbą wątków: 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35246741154562383"/>
+          <c:y val="5.5991041433370664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12148711857945131"/>
+          <c:y val="0.20558999274026918"/>
+          <c:w val="0.79771679203507384"/>
+          <c:h val="0.62174597996079162"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workStealingPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixedThreadPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$10:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="216422912"/>
+        <c:axId val="215688320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="216422912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba iteracji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="215688320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="215688320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216422912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75858938547486032"/>
+          <c:y val="4.9849074016923699E-2"/>
+          <c:w val="0.20416666666666666"/>
+          <c:h val="0.13499748701625064"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Liczbą wątków: 20</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35246741154562383"/>
+          <c:y val="5.5991041433370664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12148711857945131"/>
+          <c:y val="0.20558999274026918"/>
+          <c:w val="0.79771679203507384"/>
+          <c:h val="0.62174597996079162"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workStealingPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixedThreadPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$14:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="174197248"/>
+        <c:axId val="216217792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="174197248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba iteracji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216217792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216217792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174197248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75858938547486032"/>
+          <c:y val="4.9849074016923699E-2"/>
+          <c:w val="0.20416666666666666"/>
+          <c:h val="0.13499748701625064"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,11 +1648,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -602,6 +1892,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
